--- a/biology/Zoologie/Cretomegahexura_platnicki/Cretomegahexura_platnicki.xlsx
+++ b/biology/Zoologie/Cretomegahexura_platnicki/Cretomegahexura_platnicki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cretomegahexura
-Cretomegahexura platnicki, unique représentant du genre Cretomegahexura, est une espèce fossile d'araignées mygalomorphes de la famille des Mecicobothriidae[1].
+Cretomegahexura platnicki, unique représentant du genre Cretomegahexura, est une espèce fossile d'araignées mygalomorphes de la famille des Mecicobothriidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été découverte en Mongolie. Elle date du Crétacé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte en Mongolie. Elle date du Crétacé.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cretomegahexura platnicki mesure de 9 à 11 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cretomegahexura platnicki mesure de 9 à 11 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Norman I. Platnick[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Norman I. Platnick.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Eskov &amp; Zonstein, 1990 : « First Mesozoic mygalomorph spiders from the Lower Cretaceous of Siberia and Mongolia, with notes on the system and evolution of the infraorder Mygalomorphae (Chelicerata: Araneae). » Neues Jahrbuch fuer Geologie und Palaeontologie Abhandlungen, vol. 178, no 3, p. 325-368 (en).</t>
         </is>
